--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt3-Fzd1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt3-Fzd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Wnt3</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1188736666666667</v>
+        <v>0.02136666666666667</v>
       </c>
       <c r="H2">
-        <v>0.356621</v>
+        <v>0.0641</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1036512402574302</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1036512402574302</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.269979666666667</v>
+        <v>0.794582</v>
       </c>
       <c r="N2">
-        <v>3.809939</v>
+        <v>2.383746</v>
       </c>
       <c r="O2">
-        <v>0.05093337778110387</v>
+        <v>0.03449752952410986</v>
       </c>
       <c r="P2">
-        <v>0.05093337778110387</v>
+        <v>0.03449752952410985</v>
       </c>
       <c r="Q2">
-        <v>0.1509671395687778</v>
+        <v>0.01697756873333334</v>
       </c>
       <c r="R2">
-        <v>1.358704256119</v>
+        <v>0.1527981186</v>
       </c>
       <c r="S2">
-        <v>0.05093337778110387</v>
+        <v>0.003575711720991305</v>
       </c>
       <c r="T2">
-        <v>0.05093337778110387</v>
+        <v>0.003575711720991303</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1188736666666667</v>
+        <v>0.02136666666666667</v>
       </c>
       <c r="H3">
-        <v>0.356621</v>
+        <v>0.0641</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1036512402574302</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1036512402574302</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>61.812468</v>
       </c>
       <c r="O3">
-        <v>0.8263433572627786</v>
+        <v>0.8945489325574519</v>
       </c>
       <c r="P3">
-        <v>0.8263433572627789</v>
+        <v>0.8945489325574517</v>
       </c>
       <c r="Q3">
-        <v>2.449291572292</v>
+        <v>0.4402421332000001</v>
       </c>
       <c r="R3">
-        <v>22.043624150628</v>
+        <v>3.9621791988</v>
       </c>
       <c r="S3">
-        <v>0.8263433572627786</v>
+        <v>0.09272110633054022</v>
       </c>
       <c r="T3">
-        <v>0.8263433572627789</v>
+        <v>0.09272110633054019</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1188736666666667</v>
+        <v>0.02136666666666667</v>
       </c>
       <c r="H4">
-        <v>0.356621</v>
+        <v>0.0641</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.1036512402574302</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.1036512402574302</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6519523333333334</v>
+        <v>0.2871986666666667</v>
       </c>
       <c r="N4">
-        <v>1.955857</v>
+        <v>0.8615959999999999</v>
       </c>
       <c r="O4">
-        <v>0.02614698121592405</v>
+        <v>0.01246900191876775</v>
       </c>
       <c r="P4">
-        <v>0.02614698121592406</v>
+        <v>0.01246900191876775</v>
       </c>
       <c r="Q4">
-        <v>0.07749996435522222</v>
+        <v>0.006136478177777779</v>
       </c>
       <c r="R4">
-        <v>0.697499679197</v>
+        <v>0.0552283036</v>
       </c>
       <c r="S4">
-        <v>0.02614698121592405</v>
+        <v>0.001292427513652555</v>
       </c>
       <c r="T4">
-        <v>0.02614698121592406</v>
+        <v>0.001292427513652555</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1188736666666667</v>
+        <v>0.02136666666666667</v>
       </c>
       <c r="H5">
-        <v>0.356621</v>
+        <v>0.0641</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.1036512402574302</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.1036512402574302</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.659922</v>
+        <v>1.149534666666667</v>
       </c>
       <c r="N5">
-        <v>4.979766</v>
+        <v>3.448604</v>
       </c>
       <c r="O5">
-        <v>0.06657227397590787</v>
+        <v>0.04990813547540859</v>
       </c>
       <c r="P5">
-        <v>0.06657227397590788</v>
+        <v>0.04990813547540859</v>
       </c>
       <c r="Q5">
-        <v>0.1973210145206666</v>
+        <v>0.02456172404444444</v>
       </c>
       <c r="R5">
-        <v>1.775889130686</v>
+        <v>0.2210555164</v>
       </c>
       <c r="S5">
-        <v>0.06657227397590787</v>
+        <v>0.005173040140961954</v>
       </c>
       <c r="T5">
-        <v>0.06657227397590788</v>
+        <v>0.005173040140961953</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,681 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.02136666666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.0641</v>
+      </c>
+      <c r="I6">
+        <v>0.1036512402574302</v>
+      </c>
+      <c r="J6">
+        <v>0.1036512402574302</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.1975403333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.5926210000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.008576400524262026</v>
+      </c>
+      <c r="P6">
+        <v>0.008576400524262026</v>
+      </c>
+      <c r="Q6">
+        <v>0.004220778455555557</v>
+      </c>
+      <c r="R6">
+        <v>0.03798700610000001</v>
+      </c>
+      <c r="S6">
+        <v>0.0008889545512842339</v>
+      </c>
+      <c r="T6">
+        <v>0.0008889545512842338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.04194033333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.125821</v>
+      </c>
+      <c r="I7">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="J7">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.794582</v>
+      </c>
+      <c r="N7">
+        <v>2.383746</v>
+      </c>
+      <c r="O7">
+        <v>0.03449752952410986</v>
+      </c>
+      <c r="P7">
+        <v>0.03449752952410985</v>
+      </c>
+      <c r="Q7">
+        <v>0.03332503394066667</v>
+      </c>
+      <c r="R7">
+        <v>0.2999253054659999</v>
+      </c>
+      <c r="S7">
+        <v>0.007018714889966409</v>
+      </c>
+      <c r="T7">
+        <v>0.007018714889966408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.04194033333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.125821</v>
+      </c>
+      <c r="I8">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="J8">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>20.604156</v>
+      </c>
+      <c r="N8">
+        <v>61.812468</v>
+      </c>
+      <c r="O8">
+        <v>0.8945489325574519</v>
+      </c>
+      <c r="P8">
+        <v>0.8945489325574517</v>
+      </c>
+      <c r="Q8">
+        <v>0.8641451706919999</v>
+      </c>
+      <c r="R8">
+        <v>7.777306536227998</v>
+      </c>
+      <c r="S8">
+        <v>0.1820009722248814</v>
+      </c>
+      <c r="T8">
+        <v>0.1820009722248814</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.04194033333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.125821</v>
+      </c>
+      <c r="I9">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="J9">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.2871986666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.8615959999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.01246900191876775</v>
+      </c>
+      <c r="P9">
+        <v>0.01246900191876775</v>
+      </c>
+      <c r="Q9">
+        <v>0.01204520781288889</v>
+      </c>
+      <c r="R9">
+        <v>0.108406870316</v>
+      </c>
+      <c r="S9">
+        <v>0.002536888021767209</v>
+      </c>
+      <c r="T9">
+        <v>0.002536888021767208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.04194033333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.125821</v>
+      </c>
+      <c r="I10">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="J10">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.149534666666667</v>
+      </c>
+      <c r="N10">
+        <v>3.448604</v>
+      </c>
+      <c r="O10">
+        <v>0.04990813547540859</v>
+      </c>
+      <c r="P10">
+        <v>0.04990813547540859</v>
+      </c>
+      <c r="Q10">
+        <v>0.04821186709822221</v>
+      </c>
+      <c r="R10">
+        <v>0.4339068038839999</v>
+      </c>
+      <c r="S10">
+        <v>0.01015408866733189</v>
+      </c>
+      <c r="T10">
+        <v>0.01015408866733189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.04194033333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.125821</v>
+      </c>
+      <c r="I11">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="J11">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.1975403333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.5926210000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.008576400524262026</v>
+      </c>
+      <c r="P11">
+        <v>0.008576400524262026</v>
+      </c>
+      <c r="Q11">
+        <v>0.008284907426777777</v>
+      </c>
+      <c r="R11">
+        <v>0.07456416684100001</v>
+      </c>
+      <c r="S11">
+        <v>0.001744916545977123</v>
+      </c>
+      <c r="T11">
+        <v>0.001744916545977123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.142833</v>
+      </c>
+      <c r="H12">
+        <v>0.428499</v>
+      </c>
+      <c r="I12">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="J12">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.794582</v>
+      </c>
+      <c r="N12">
+        <v>2.383746</v>
+      </c>
+      <c r="O12">
+        <v>0.03449752952410986</v>
+      </c>
+      <c r="P12">
+        <v>0.03449752952410985</v>
+      </c>
+      <c r="Q12">
+        <v>0.113492530806</v>
+      </c>
+      <c r="R12">
+        <v>1.021432777254</v>
+      </c>
+      <c r="S12">
+        <v>0.02390310291315214</v>
+      </c>
+      <c r="T12">
+        <v>0.02390310291315214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>26</v>
       </c>
-      <c r="E6">
+      <c r="E13">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="F13">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G6">
-        <v>0.1188736666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.356621</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.7481240000000001</v>
-      </c>
-      <c r="N6">
-        <v>2.244372</v>
-      </c>
-      <c r="O6">
-        <v>0.03000400976428538</v>
-      </c>
-      <c r="P6">
-        <v>0.03000400976428538</v>
-      </c>
-      <c r="Q6">
-        <v>0.08893224300133334</v>
-      </c>
-      <c r="R6">
-        <v>0.800390187012</v>
-      </c>
-      <c r="S6">
-        <v>0.03000400976428538</v>
-      </c>
-      <c r="T6">
-        <v>0.03000400976428538</v>
+      <c r="G13">
+        <v>0.142833</v>
+      </c>
+      <c r="H13">
+        <v>0.428499</v>
+      </c>
+      <c r="I13">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="J13">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>20.604156</v>
+      </c>
+      <c r="N13">
+        <v>61.812468</v>
+      </c>
+      <c r="O13">
+        <v>0.8945489325574519</v>
+      </c>
+      <c r="P13">
+        <v>0.8945489325574517</v>
+      </c>
+      <c r="Q13">
+        <v>2.942953413948</v>
+      </c>
+      <c r="R13">
+        <v>26.486580725532</v>
+      </c>
+      <c r="S13">
+        <v>0.6198268540020303</v>
+      </c>
+      <c r="T13">
+        <v>0.6198268540020301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.142833</v>
+      </c>
+      <c r="H14">
+        <v>0.428499</v>
+      </c>
+      <c r="I14">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="J14">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.2871986666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.8615959999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.01246900191876775</v>
+      </c>
+      <c r="P14">
+        <v>0.01246900191876775</v>
+      </c>
+      <c r="Q14">
+        <v>0.04102144715599999</v>
+      </c>
+      <c r="R14">
+        <v>0.3691930244039999</v>
+      </c>
+      <c r="S14">
+        <v>0.008639686383347989</v>
+      </c>
+      <c r="T14">
+        <v>0.008639686383347986</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.142833</v>
+      </c>
+      <c r="H15">
+        <v>0.428499</v>
+      </c>
+      <c r="I15">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="J15">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.149534666666667</v>
+      </c>
+      <c r="N15">
+        <v>3.448604</v>
+      </c>
+      <c r="O15">
+        <v>0.04990813547540859</v>
+      </c>
+      <c r="P15">
+        <v>0.04990813547540859</v>
+      </c>
+      <c r="Q15">
+        <v>0.164191485044</v>
+      </c>
+      <c r="R15">
+        <v>1.477723365396</v>
+      </c>
+      <c r="S15">
+        <v>0.03458100666711475</v>
+      </c>
+      <c r="T15">
+        <v>0.03458100666711475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.142833</v>
+      </c>
+      <c r="H16">
+        <v>0.428499</v>
+      </c>
+      <c r="I16">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="J16">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.1975403333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.5926210000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.008576400524262026</v>
+      </c>
+      <c r="P16">
+        <v>0.008576400524262026</v>
+      </c>
+      <c r="Q16">
+        <v>0.028215278431</v>
+      </c>
+      <c r="R16">
+        <v>0.253937505879</v>
+      </c>
+      <c r="S16">
+        <v>0.005942529427000669</v>
+      </c>
+      <c r="T16">
+        <v>0.005942529427000669</v>
       </c>
     </row>
   </sheetData>
